--- a/1_Datos ejer Cap1.xlsx
+++ b/1_Datos ejer Cap1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROMOCIÓN 2023\Capitulo 1 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/Documents/R/Expdesig_uach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD0BC1-35A9-4949-891A-489D2C6459E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F87F3-71E2-B24D-BD67-7046DD66BB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="24240" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eje1" sheetId="1" r:id="rId1"/>
     <sheet name="Eje2" sheetId="5" r:id="rId2"/>
     <sheet name="Eje3" sheetId="3" r:id="rId3"/>
     <sheet name="Eje4" sheetId="7" r:id="rId4"/>
+    <sheet name="Eje5" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="68">
   <si>
     <t>Cultivar</t>
   </si>
@@ -214,6 +215,24 @@
   </si>
   <si>
     <t>Alicante</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>insectos</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
 </sst>
 </file>
@@ -645,18 +664,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -664,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -672,7 +691,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -680,7 +699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -688,7 +707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -696,7 +715,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -704,7 +723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -720,7 +739,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -728,7 +747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -736,7 +755,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,7 +763,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +771,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,7 +779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,7 +787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,7 +795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,7 +803,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,7 +811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,7 +819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,7 +835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,7 +843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,7 +851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,7 +867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,7 +875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,13 +892,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -887,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -895,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -903,7 +922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -911,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -919,7 +938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -927,7 +946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -935,7 +954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -943,7 +962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -951,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -959,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -967,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -975,7 +994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -991,7 +1010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
@@ -1092,13 +1111,13 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -1274,7 +1293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -1282,7 +1301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1298,7 +1317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -1319,9 +1338,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1329,7 +1348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1337,7 +1356,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1353,7 +1372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1361,7 +1380,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1377,7 +1396,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1385,7 +1404,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +1420,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1425,7 +1444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1452,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1441,7 +1460,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1449,7 +1468,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1457,7 +1476,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1465,7 +1484,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1473,7 +1492,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1481,7 +1500,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1489,7 +1508,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1505,7 +1524,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1513,7 +1532,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1521,7 +1540,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1548,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1545,7 +1564,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1553,7 +1572,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1561,7 +1580,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1577,7 +1596,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1585,7 +1604,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1593,7 +1612,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1601,7 +1620,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1609,7 +1628,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1617,7 +1636,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1625,7 +1644,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +1652,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1641,7 +1660,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1649,7 +1668,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1657,7 +1676,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1665,7 +1684,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1689,7 +1708,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1697,7 +1716,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1705,7 +1724,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1713,7 +1732,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1721,7 +1740,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1729,7 +1748,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1737,7 +1756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1745,7 +1764,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +1772,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1761,7 +1780,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1769,7 +1788,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1785,7 +1804,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1793,7 +1812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1801,7 +1820,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1809,7 +1828,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -1825,7 +1844,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -1833,7 +1852,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -1849,7 +1868,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -1857,7 +1876,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -1865,7 +1884,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -1873,7 +1892,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -1881,7 +1900,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -1897,7 +1916,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -1905,7 +1924,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -1913,7 +1932,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -1929,7 +1948,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -1937,7 +1956,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -1945,7 +1964,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +1972,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -1961,7 +1980,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -1969,7 +1988,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -1977,7 +1996,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -1985,7 +2004,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +2012,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -2001,7 +2020,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -2009,7 +2028,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2017,7 +2036,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -2025,7 +2044,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -2033,7 +2052,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -2041,7 +2060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2049,7 +2068,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -2057,7 +2076,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2065,7 +2084,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -2073,7 +2092,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -2081,7 +2100,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -2089,7 +2108,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2105,7 +2124,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -2121,7 +2140,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2129,7 +2148,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>61</v>
       </c>
@@ -2137,7 +2156,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>61</v>
       </c>
@@ -2145,7 +2164,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -2161,7 +2180,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>61</v>
       </c>
@@ -2169,7 +2188,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2196,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -2185,7 +2204,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -2193,7 +2212,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>61</v>
       </c>
@@ -2201,7 +2220,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -2209,7 +2228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2236,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -2233,7 +2252,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -2241,7 +2260,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -2249,7 +2268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -2273,7 +2292,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -2281,7 +2300,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -2289,7 +2308,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -2297,7 +2316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -2305,7 +2324,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -2321,7 +2340,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2348,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -2337,7 +2356,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -2345,7 +2364,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -2353,7 +2372,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -2369,7 +2388,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -2385,7 +2404,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -2393,7 +2412,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -2401,7 +2420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2428,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -2417,7 +2436,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -2425,7 +2444,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -2433,7 +2452,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -2449,7 +2468,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -2457,7 +2476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -2465,7 +2484,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -2481,7 +2500,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -2489,7 +2508,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -2497,7 +2516,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +2532,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -2521,7 +2540,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>61</v>
       </c>
@@ -2533,4 +2552,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1100D26F-D40B-C040-98C4-409D4066B260}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>